--- a/results/MVSE/aminer/MVSE_aminer<l05><WL>86.29.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l05><WL>86.29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -632,26 +632,26 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="N3" t="n">
-        <v>85.95999999999999</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_53_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-21_29_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -702,23 +702,23 @@
         <v>0.6</v>
       </c>
       <c r="N4" t="n">
-        <v>85.43000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_35_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-20_24_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -766,26 +766,26 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="N5" t="n">
-        <v>85.40000000000001</v>
+        <v>86.08</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_52_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-22_36_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>WL_0.025_0.025_0.95</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -833,26 +833,26 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="N6" t="n">
-        <v>85.40000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-17_20_22', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_53_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -871,14 +871,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>WL_0.05_0.05_0.9</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -900,26 +900,26 @@
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="N7" t="n">
-        <v>85.40000000000001</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-20_18_51', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-13_35_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>WL_0.1_0.1_0.8</t>
+          <t>WL_0_0_1</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_39_23', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-14_52_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>WL_0.2_0.2_0.6</t>
+          <t>WL_0.025_0.025_0.95</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-01_19_28', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-17_20_22', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>WL_0.25_0.25_0.5</t>
+          <t>WL_0.05_0.05_0.9</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_42_16', 'cl_mode': 'WL_0.25_0.25_0.5', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-20_18_51', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>WL_0.33_0.33_0.33</t>
+          <t>WL_0.1_0.1_0.8</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1180,6 +1180,207 @@
         <v>0.72</v>
       </c>
       <c r="Q11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-22_39_23', 'cl_mode': 'WL_0.1_0.1_0.8', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>128</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>WL_0.2_0.2_0.6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N12" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-01_19_28', 'cl_mode': 'WL_0.2_0.2_0.6', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>128</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>WL_0.25_0.25_0.5</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N13" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_42_16', 'cl_mode': 'WL_0.25_0.25_0.5', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>WL_0.33_0.33_0.33</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N14" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-15_47_22', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
